--- a/datenRF4/AFL/i=23,28 Scheibenbremse, Abtriebswelle=22/Prozesse_Stückliste_L2_S4_i23_Scheibenbremse.xlsx
+++ b/datenRF4/AFL/i=23,28 Scheibenbremse, Abtriebswelle=22/Prozesse_Stückliste_L2_S4_i23_Scheibenbremse.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24302"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_758C22EA8A3DE6211C4EFB979A0A720EAE9B4CBD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liria\Desktop\HiWi\testing\BOM\datenRF4\AFL\i=23,28 Scheibenbremse, Abtriebswelle=22\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26836F71-DF0D-4C95-980C-D008AFB41409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variante 1" sheetId="5" r:id="rId1"/>
@@ -458,7 +463,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1255,7 +1260,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1569,30 +1574,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="38.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" customWidth="1"/>
-    <col min="12" max="12" width="45.28515625" customWidth="1"/>
-    <col min="13" max="13" width="37.140625" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="38" customWidth="1"/>
+    <col min="9" max="9" width="38.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" customWidth="1"/>
+    <col min="12" max="12" width="45.33203125" customWidth="1"/>
+    <col min="13" max="13" width="37.109375" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1623,7 @@
       <c r="T1" s="122"/>
       <c r="U1" s="122"/>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1">
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="123" t="s">
         <v>3</v>
       </c>
@@ -1650,7 +1652,7 @@
       <c r="T2" s="22"/>
       <c r="U2" s="22"/>
     </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="3" spans="1:21" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>6</v>
       </c>
@@ -1715,7 +1717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="45.95" customHeight="1" thickBot="1">
+    <row r="4" spans="1:21" ht="45.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -1749,7 +1751,7 @@
       </c>
       <c r="U4" s="57"/>
     </row>
-    <row r="5" spans="1:21" ht="87">
+    <row r="5" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>5</v>
       </c>
@@ -1804,7 +1806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1">
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
         <v>6</v>
       </c>
@@ -1839,7 +1841,7 @@
       <c r="T6" s="44"/>
       <c r="U6" s="59"/>
     </row>
-    <row r="7" spans="1:21" ht="15" thickBot="1">
+    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>1</v>
       </c>
@@ -1876,7 +1878,7 @@
       <c r="T7" s="44"/>
       <c r="U7" s="59"/>
     </row>
-    <row r="8" spans="1:21" ht="29.45" thickBot="1">
+    <row r="8" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="37"/>
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
@@ -1908,7 +1910,7 @@
       <c r="T8" s="44"/>
       <c r="U8" s="59"/>
     </row>
-    <row r="9" spans="1:21" ht="87">
+    <row r="9" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -1961,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -1996,7 +1998,7 @@
       <c r="T10" s="38"/>
       <c r="U10" s="39"/>
     </row>
-    <row r="11" spans="1:21" ht="15" thickBot="1">
+    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>6</v>
       </c>
@@ -2031,7 +2033,7 @@
       <c r="T11" s="38"/>
       <c r="U11" s="39"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="66">
         <v>1</v>
       </c>
@@ -2068,7 +2070,7 @@
       <c r="T12" s="38"/>
       <c r="U12" s="39"/>
     </row>
-    <row r="13" spans="1:21" ht="29.45" thickBot="1">
+    <row r="13" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>2</v>
       </c>
@@ -2105,7 +2107,7 @@
       <c r="T13" s="38"/>
       <c r="U13" s="39"/>
     </row>
-    <row r="14" spans="1:21" ht="57.95">
+    <row r="14" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="37"/>
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
@@ -2135,7 +2137,7 @@
       <c r="T14" s="38"/>
       <c r="U14" s="39"/>
     </row>
-    <row r="15" spans="1:21" ht="57.95">
+    <row r="15" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="37"/>
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
@@ -2165,7 +2167,7 @@
       <c r="T15" s="38"/>
       <c r="U15" s="39"/>
     </row>
-    <row r="16" spans="1:21" ht="43.5">
+    <row r="16" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="37"/>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
@@ -2195,7 +2197,7 @@
       <c r="T16" s="38"/>
       <c r="U16" s="39"/>
     </row>
-    <row r="17" spans="1:21" ht="29.1">
+    <row r="17" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="37"/>
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
@@ -2225,7 +2227,7 @@
       <c r="T17" s="38"/>
       <c r="U17" s="39"/>
     </row>
-    <row r="18" spans="1:21" ht="29.1">
+    <row r="18" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="37"/>
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
@@ -2255,7 +2257,7 @@
       <c r="T18" s="38"/>
       <c r="U18" s="39"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="37"/>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
@@ -2277,7 +2279,7 @@
       <c r="T19" s="38"/>
       <c r="U19" s="39"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="37"/>
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
@@ -2299,7 +2301,7 @@
       <c r="T20" s="38"/>
       <c r="U20" s="39"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="37"/>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
@@ -2321,7 +2323,7 @@
       <c r="T21" s="38"/>
       <c r="U21" s="39"/>
     </row>
-    <row r="22" spans="1:21" ht="15" thickBot="1">
+    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="37"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
@@ -2343,7 +2345,7 @@
       <c r="T22" s="38"/>
       <c r="U22" s="39"/>
     </row>
-    <row r="23" spans="1:21" ht="87">
+    <row r="23" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>1</v>
       </c>
@@ -2396,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -2431,7 +2433,7 @@
       <c r="T24" s="38"/>
       <c r="U24" s="39"/>
     </row>
-    <row r="25" spans="1:21" ht="15" thickBot="1">
+    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>6</v>
       </c>
@@ -2466,7 +2468,7 @@
       <c r="T25" s="38"/>
       <c r="U25" s="39"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="66">
         <v>1</v>
       </c>
@@ -2503,7 +2505,7 @@
       <c r="T26" s="38"/>
       <c r="U26" s="39"/>
     </row>
-    <row r="27" spans="1:21" ht="29.45" thickBot="1">
+    <row r="27" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>2</v>
       </c>
@@ -2540,7 +2542,7 @@
       <c r="T27" s="38"/>
       <c r="U27" s="39"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="37"/>
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
@@ -2562,7 +2564,7 @@
       <c r="T28" s="38"/>
       <c r="U28" s="39"/>
     </row>
-    <row r="29" spans="1:21" ht="29.1">
+    <row r="29" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="37"/>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
@@ -2592,7 +2594,7 @@
       <c r="T29" s="38"/>
       <c r="U29" s="39"/>
     </row>
-    <row r="30" spans="1:21" ht="29.1">
+    <row r="30" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="37"/>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
@@ -2622,7 +2624,7 @@
       <c r="T30" s="38"/>
       <c r="U30" s="39"/>
     </row>
-    <row r="31" spans="1:21" ht="29.1">
+    <row r="31" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="18"/>
       <c r="C31" s="17"/>
@@ -2653,7 +2655,7 @@
       <c r="T31" s="38"/>
       <c r="U31" s="39"/>
     </row>
-    <row r="32" spans="1:21" ht="29.45" thickBot="1">
+    <row r="32" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="37"/>
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
@@ -2683,7 +2685,7 @@
       <c r="T32" s="38"/>
       <c r="U32" s="39"/>
     </row>
-    <row r="33" spans="1:21" ht="87">
+    <row r="33" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>1</v>
       </c>
@@ -2736,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>5</v>
       </c>
@@ -2771,7 +2773,7 @@
       <c r="T34" s="38"/>
       <c r="U34" s="39"/>
     </row>
-    <row r="35" spans="1:21" ht="15" thickBot="1">
+    <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="109">
         <v>6</v>
       </c>
@@ -2806,7 +2808,7 @@
       <c r="T35" s="38"/>
       <c r="U35" s="39"/>
     </row>
-    <row r="36" spans="1:21" ht="15" thickBot="1">
+    <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>1</v>
       </c>
@@ -2843,7 +2845,7 @@
       <c r="T36" s="38"/>
       <c r="U36" s="39"/>
     </row>
-    <row r="37" spans="1:21" ht="15" thickBot="1">
+    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="29">
         <v>2</v>
       </c>
@@ -2880,7 +2882,7 @@
       <c r="T37" s="38"/>
       <c r="U37" s="39"/>
     </row>
-    <row r="38" spans="1:21" ht="15" thickBot="1">
+    <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="37"/>
       <c r="B38" s="38"/>
       <c r="C38" s="38"/>
@@ -2902,7 +2904,7 @@
       <c r="T38" s="38"/>
       <c r="U38" s="39"/>
     </row>
-    <row r="39" spans="1:21" ht="57.95">
+    <row r="39" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>1</v>
       </c>
@@ -2951,7 +2953,7 @@
       </c>
       <c r="U39" s="39"/>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>5</v>
       </c>
@@ -2986,7 +2988,7 @@
       <c r="T40" s="38"/>
       <c r="U40" s="39"/>
     </row>
-    <row r="41" spans="1:21" ht="15" thickBot="1">
+    <row r="41" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>6</v>
       </c>
@@ -3021,7 +3023,7 @@
       <c r="T41" s="38"/>
       <c r="U41" s="39"/>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="66">
         <v>1</v>
       </c>
@@ -3058,7 +3060,7 @@
       <c r="T42" s="38"/>
       <c r="U42" s="39"/>
     </row>
-    <row r="43" spans="1:21" ht="15" thickBot="1">
+    <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="29">
         <v>2</v>
       </c>
@@ -3095,7 +3097,7 @@
       <c r="T43" s="38"/>
       <c r="U43" s="39"/>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="37"/>
       <c r="B44" s="38"/>
       <c r="C44" s="38"/>
@@ -3117,7 +3119,7 @@
       <c r="T44" s="38"/>
       <c r="U44" s="39"/>
     </row>
-    <row r="45" spans="1:21" ht="29.1">
+    <row r="45" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="37"/>
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>
@@ -3147,7 +3149,7 @@
       <c r="T45" s="38"/>
       <c r="U45" s="39"/>
     </row>
-    <row r="46" spans="1:21" ht="44.1" thickBot="1">
+    <row r="46" spans="1:21" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="37"/>
       <c r="B46" s="38"/>
       <c r="C46" s="38"/>
@@ -3177,7 +3179,7 @@
       <c r="T46" s="38"/>
       <c r="U46" s="39"/>
     </row>
-    <row r="47" spans="1:21" ht="57.95">
+    <row r="47" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>1</v>
       </c>
@@ -3232,7 +3234,7 @@
       </c>
       <c r="U47" s="39"/>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>5</v>
       </c>
@@ -3267,7 +3269,7 @@
       <c r="T48" s="38"/>
       <c r="U48" s="39"/>
     </row>
-    <row r="49" spans="1:21" ht="15" thickBot="1">
+    <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
         <v>6</v>
       </c>
@@ -3302,7 +3304,7 @@
       <c r="T49" s="38"/>
       <c r="U49" s="39"/>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="66">
         <v>1</v>
       </c>
@@ -3339,7 +3341,7 @@
       <c r="T50" s="38"/>
       <c r="U50" s="39"/>
     </row>
-    <row r="51" spans="1:21" ht="15" thickBot="1">
+    <row r="51" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="29">
         <v>2</v>
       </c>
@@ -3376,7 +3378,7 @@
       <c r="T51" s="38"/>
       <c r="U51" s="39"/>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="37"/>
       <c r="B52" s="38"/>
       <c r="C52" s="38"/>
@@ -3398,7 +3400,7 @@
       <c r="T52" s="38"/>
       <c r="U52" s="39"/>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="37"/>
       <c r="B53" s="38"/>
       <c r="C53" s="38"/>
@@ -3420,7 +3422,7 @@
       <c r="T53" s="38"/>
       <c r="U53" s="39"/>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="37"/>
       <c r="B54" s="38"/>
       <c r="C54" s="38"/>
@@ -3442,7 +3444,7 @@
       <c r="T54" s="38"/>
       <c r="U54" s="39"/>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="37"/>
       <c r="B55" s="38"/>
       <c r="C55" s="38"/>
@@ -3464,7 +3466,7 @@
       <c r="T55" s="38"/>
       <c r="U55" s="39"/>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="37"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
@@ -3486,7 +3488,7 @@
       <c r="T56" s="38"/>
       <c r="U56" s="39"/>
     </row>
-    <row r="57" spans="1:21" ht="15" thickBot="1">
+    <row r="57" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="37"/>
       <c r="B57" s="38"/>
       <c r="C57" s="38"/>
@@ -3508,7 +3510,7 @@
       <c r="T57" s="38"/>
       <c r="U57" s="39"/>
     </row>
-    <row r="58" spans="1:21" ht="87">
+    <row r="58" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>1</v>
       </c>
@@ -3563,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>5</v>
       </c>
@@ -3598,7 +3600,7 @@
       <c r="T59" s="38"/>
       <c r="U59" s="39"/>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>6</v>
       </c>
@@ -3633,7 +3635,7 @@
       <c r="T60" s="38"/>
       <c r="U60" s="39"/>
     </row>
-    <row r="61" spans="1:21" ht="15" thickBot="1">
+    <row r="61" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="29">
         <v>7</v>
       </c>
@@ -3668,7 +3670,7 @@
       <c r="T61" s="38"/>
       <c r="U61" s="39"/>
     </row>
-    <row r="62" spans="1:21" ht="15" thickBot="1">
+    <row r="62" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="70">
         <v>1</v>
       </c>
@@ -3705,7 +3707,7 @@
       <c r="T62" s="38"/>
       <c r="U62" s="39"/>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="37"/>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
@@ -3727,7 +3729,7 @@
       <c r="T63" s="38"/>
       <c r="U63" s="39"/>
     </row>
-    <row r="64" spans="1:21" ht="44.1" thickBot="1">
+    <row r="64" spans="1:21" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="37"/>
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
@@ -3757,7 +3759,7 @@
       <c r="T64" s="38"/>
       <c r="U64" s="39"/>
     </row>
-    <row r="65" spans="1:21" ht="87">
+    <row r="65" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>1</v>
       </c>
@@ -3810,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>5</v>
       </c>
@@ -3845,7 +3847,7 @@
       <c r="T66" s="38"/>
       <c r="U66" s="39"/>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>6</v>
       </c>
@@ -3880,7 +3882,7 @@
       <c r="T67" s="38"/>
       <c r="U67" s="39"/>
     </row>
-    <row r="68" spans="1:21" ht="15" thickBot="1">
+    <row r="68" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="29">
         <v>7</v>
       </c>
@@ -3915,7 +3917,7 @@
       <c r="T68" s="38"/>
       <c r="U68" s="39"/>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="73">
         <v>1</v>
       </c>
@@ -3952,7 +3954,7 @@
       <c r="T69" s="38"/>
       <c r="U69" s="39"/>
     </row>
-    <row r="70" spans="1:21" ht="15" thickBot="1">
+    <row r="70" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="29">
         <v>2</v>
       </c>
@@ -3989,7 +3991,7 @@
       <c r="T70" s="38"/>
       <c r="U70" s="39"/>
     </row>
-    <row r="71" spans="1:21" ht="29.1">
+    <row r="71" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="37"/>
       <c r="B71" s="38"/>
       <c r="C71" s="38"/>
@@ -4019,7 +4021,7 @@
       <c r="T71" s="38"/>
       <c r="U71" s="39"/>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="37"/>
       <c r="B72" s="38"/>
       <c r="C72" s="38"/>
@@ -4049,7 +4051,7 @@
       <c r="T72" s="38"/>
       <c r="U72" s="39"/>
     </row>
-    <row r="73" spans="1:21" ht="44.1" thickBot="1">
+    <row r="73" spans="1:21" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="37"/>
       <c r="B73" s="38"/>
       <c r="C73" s="38"/>
@@ -4079,7 +4081,7 @@
       <c r="T73" s="38"/>
       <c r="U73" s="39"/>
     </row>
-    <row r="74" spans="1:21" ht="87">
+    <row r="74" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>1</v>
       </c>
@@ -4132,7 +4134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>5</v>
       </c>
@@ -4167,7 +4169,7 @@
       <c r="T75" s="38"/>
       <c r="U75" s="39"/>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>6</v>
       </c>
@@ -4202,7 +4204,7 @@
       <c r="T76" s="38"/>
       <c r="U76" s="39"/>
     </row>
-    <row r="77" spans="1:21" ht="15" thickBot="1">
+    <row r="77" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="29">
         <v>7</v>
       </c>
@@ -4237,7 +4239,7 @@
       <c r="T77" s="38"/>
       <c r="U77" s="39"/>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="73">
         <v>1</v>
       </c>
@@ -4274,7 +4276,7 @@
       <c r="T78" s="38"/>
       <c r="U78" s="39"/>
     </row>
-    <row r="79" spans="1:21" ht="15" thickBot="1">
+    <row r="79" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="29">
         <v>2</v>
       </c>
@@ -4311,7 +4313,7 @@
       <c r="T79" s="38"/>
       <c r="U79" s="39"/>
     </row>
-    <row r="80" spans="1:21" ht="29.1">
+    <row r="80" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="37"/>
       <c r="B80" s="38"/>
       <c r="C80" s="38"/>
@@ -4343,7 +4345,7 @@
       <c r="T80" s="38"/>
       <c r="U80" s="39"/>
     </row>
-    <row r="81" spans="1:21" ht="29.1">
+    <row r="81" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="37"/>
       <c r="B81" s="38"/>
       <c r="C81" s="38"/>
@@ -4375,7 +4377,7 @@
       <c r="T81" s="38"/>
       <c r="U81" s="39"/>
     </row>
-    <row r="82" spans="1:21" ht="43.5">
+    <row r="82" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="37"/>
       <c r="B82" s="38"/>
       <c r="C82" s="38"/>
@@ -4405,7 +4407,7 @@
       <c r="T82" s="38"/>
       <c r="U82" s="39"/>
     </row>
-    <row r="83" spans="1:21" ht="43.5">
+    <row r="83" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="37"/>
       <c r="B83" s="38"/>
       <c r="C83" s="38"/>
@@ -4435,7 +4437,7 @@
       <c r="T83" s="38"/>
       <c r="U83" s="39"/>
     </row>
-    <row r="84" spans="1:21" ht="44.1" thickBot="1">
+    <row r="84" spans="1:21" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="37"/>
       <c r="B84" s="38"/>
       <c r="C84" s="38"/>
@@ -4465,7 +4467,7 @@
       <c r="T84" s="38"/>
       <c r="U84" s="39"/>
     </row>
-    <row r="85" spans="1:21" ht="87">
+    <row r="85" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
         <v>1</v>
       </c>
@@ -4518,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>5</v>
       </c>
@@ -4553,7 +4555,7 @@
       <c r="T86" s="38"/>
       <c r="U86" s="39"/>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>6</v>
       </c>
@@ -4588,7 +4590,7 @@
       <c r="T87" s="38"/>
       <c r="U87" s="39"/>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="32">
         <v>7</v>
       </c>
@@ -4623,7 +4625,7 @@
       <c r="T88" s="38"/>
       <c r="U88" s="39"/>
     </row>
-    <row r="89" spans="1:21" ht="15" thickBot="1">
+    <row r="89" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="29">
         <v>8</v>
       </c>
@@ -4660,7 +4662,7 @@
       <c r="T89" s="38"/>
       <c r="U89" s="39"/>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="37"/>
       <c r="B90" s="38"/>
       <c r="C90" s="38"/>
@@ -4682,7 +4684,7 @@
       <c r="T90" s="38"/>
       <c r="U90" s="39"/>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="37"/>
       <c r="B91" s="38"/>
       <c r="C91" s="38"/>
@@ -4704,7 +4706,7 @@
       <c r="T91" s="38"/>
       <c r="U91" s="39"/>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="37"/>
       <c r="B92" s="38"/>
       <c r="C92" s="38"/>
@@ -4726,7 +4728,7 @@
       <c r="T92" s="38"/>
       <c r="U92" s="39"/>
     </row>
-    <row r="93" spans="1:21" ht="44.1" thickBot="1">
+    <row r="93" spans="1:21" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="41"/>
       <c r="B93" s="42"/>
       <c r="C93" s="42"/>
